--- a/analysis/pre_gemini_data/particiapnt230/task_easy.xlsx
+++ b/analysis/pre_gemini_data/particiapnt230/task_easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,92 +422,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>summar</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -556,25 +540,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -583,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -612,25 +596,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>153</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -639,19 +623,19 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -668,25 +652,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.59</v>
+        <v>116.8</v>
       </c>
       <c r="C5" t="n">
-        <v>23040.72</v>
+        <v>18026.64</v>
       </c>
       <c r="D5" t="n">
         <v>241.91</v>
       </c>
       <c r="E5" t="n">
-        <v>1626.45</v>
+        <v>1201.06</v>
       </c>
       <c r="F5" t="n">
         <v>37964.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2535.75</v>
+        <v>1659.91</v>
       </c>
       <c r="H5" t="n">
-        <v>5071.85</v>
+        <v>4671.42</v>
       </c>
       <c r="I5" t="n">
         <v>834.23</v>
@@ -695,19 +679,19 @@
         <v>367.11</v>
       </c>
       <c r="K5" t="n">
-        <v>9676.719999999999</v>
+        <v>8617.450000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>3937.55</v>
+        <v>3120.12</v>
       </c>
       <c r="M5" t="n">
         <v>241.91</v>
       </c>
       <c r="N5" t="n">
-        <v>34284.08</v>
+        <v>25342.61</v>
       </c>
       <c r="O5" t="n">
-        <v>1167.79</v>
+        <v>767.36</v>
       </c>
       <c r="P5" t="n">
         <v>834.23</v>
@@ -724,53 +708,53 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.9</v>
+        <v>14.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F6" t="n">
         <v>42.37</v>
       </c>
       <c r="G6" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>2.35</v>
+        <v>3.84</v>
       </c>
       <c r="I6" t="n">
-        <v>0.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.49</v>
+        <v>7.08</v>
       </c>
       <c r="L6" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="N6" t="n">
-        <v>16.22</v>
+        <v>20.81</v>
       </c>
       <c r="O6" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="P6" t="n">
-        <v>0.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -780,25 +764,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.79</v>
+        <v>116.8</v>
       </c>
       <c r="C7" t="n">
-        <v>271.07</v>
+        <v>281.67</v>
       </c>
       <c r="D7" t="n">
         <v>120.96</v>
       </c>
       <c r="E7" t="n">
-        <v>203.31</v>
+        <v>200.18</v>
       </c>
       <c r="F7" t="n">
         <v>248.13</v>
       </c>
       <c r="G7" t="n">
-        <v>195.06</v>
+        <v>184.43</v>
       </c>
       <c r="H7" t="n">
-        <v>338.12</v>
+        <v>333.67</v>
       </c>
       <c r="I7" t="n">
         <v>417.11</v>
@@ -807,19 +791,19 @@
         <v>183.56</v>
       </c>
       <c r="K7" t="n">
-        <v>345.6</v>
+        <v>359.06</v>
       </c>
       <c r="L7" t="n">
-        <v>437.51</v>
+        <v>445.73</v>
       </c>
       <c r="M7" t="n">
         <v>120.96</v>
       </c>
       <c r="N7" t="n">
-        <v>295.55</v>
+        <v>316.78</v>
       </c>
       <c r="O7" t="n">
-        <v>291.95</v>
+        <v>255.79</v>
       </c>
       <c r="P7" t="n">
         <v>417.11</v>
@@ -925,26 +909,6 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
